--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2026/Xuất kho/Tháng 02/XKSX_.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2026/Xuất kho/Tháng 02/XKSX_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Xuất kho\Tháng 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất Nhập Kho 2026\Xuất kho\Tháng 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16643F59-E259-4657-9CC0-7FE088C83864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7FE20-F25C-479B-A978-E74D53BBACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,7 +987,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1071,9 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1083,9 +1085,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
